--- a/biology/Histoire de la zoologie et de la botanique/Albany_Hancock/Albany_Hancock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albany_Hancock/Albany_Hancock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albany Hancock  né le 24 décembre 1806 à Newcastle et mort en 1873[1], est un naturaliste et biologiste anglais, partisan des thèses de Charles Darwin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albany Hancock  né le 24 décembre 1806 à Newcastle et mort en 1873, est un naturaliste et biologiste anglais, partisan des thèses de Charles Darwin.
 Ses travaux portent principalement sur les animaux marins et sur des fossiles du carbonifère supérieur.
 Albany Hancock est le frère du naturaliste John Hancock.
 À Newcastle, le musée Hancock d'histoire naturelle tient son nom des deux frères, qui ont tous deux pris part à sa construction. Beaucoup de leurs spécimens font maintenant partie des collections du musée.
-En 1872, le zoologiste allemand Paul Hesse décrit de nouveaux nudibranches et, en hommage, lui dédicace la famille Hancockiidae et l'espèce Hancockia uncinata[2].
+En 1872, le zoologiste allemand Paul Hesse décrit de nouveaux nudibranches et, en hommage, lui dédicace la famille Hancockiidae et l'espèce Hancockia uncinata.
 </t>
         </is>
       </c>
